--- a/src/test/resources/datos/data.xlsx
+++ b/src/test/resources/datos/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clara.alarcon\OneDrive - TSOFT\Escritorio\DesafioAutomatizacion\TrabajoPOM_alarcon\src\test\resources\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{05C8B938-6AAC-49DB-890D-C960FC49F0E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{4D234955-0982-4DE0-ABB2-647620613016}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="8_{05C8B938-6AAC-49DB-890D-C960FC49F0E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{5F7CDDBC-DBA5-4E89-8306-1D507F926053}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7200" xr2:uid="{13128920-B6FE-4053-B7E2-D49BE217C76D}"/>
   </bookViews>
@@ -166,16 +166,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -294,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -310,9 +304,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -640,7 +631,7 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,7 +799,7 @@
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -864,6 +855,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="44a8347a-f54a-44bc-8dc4-392ae4985b50" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100D9D086C79282EB40831F5A31AE1FD6DC" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="b8e2e9e99a661fd1fd7652c191a46a12">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="44a8347a-f54a-44bc-8dc4-392ae4985b50" xmlns:ns4="e9945a31-c942-40c8-8c8e-a530049e7ab7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3e433a894c7e3a33bff5c9c6d5edb65" ns3:_="" ns4:_="">
     <xsd:import namespace="44a8347a-f54a-44bc-8dc4-392ae4985b50"/>
@@ -1072,24 +1080,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="44a8347a-f54a-44bc-8dc4-392ae4985b50" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93C6BBF2-AF03-444C-A73E-E776970F6E96}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD5FC94C-3FC4-4D5B-9DC7-5D8F2FC5389A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="44a8347a-f54a-44bc-8dc4-392ae4985b50"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="e9945a31-c942-40c8-8c8e-a530049e7ab7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77A5678B-121E-4253-9A46-D2881CF6C5EC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1106,29 +1122,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD5FC94C-3FC4-4D5B-9DC7-5D8F2FC5389A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="e9945a31-c942-40c8-8c8e-a530049e7ab7"/>
-    <ds:schemaRef ds:uri="44a8347a-f54a-44bc-8dc4-392ae4985b50"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93C6BBF2-AF03-444C-A73E-E776970F6E96}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/test/resources/datos/data.xlsx
+++ b/src/test/resources/datos/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clara.alarcon\OneDrive - TSOFT\Escritorio\DesafioAutomatizacion\TrabajoPOM_alarcon\src\test\resources\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{05C8B938-6AAC-49DB-890D-C960FC49F0E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{5F7CDDBC-DBA5-4E89-8306-1D507F926053}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{05C8B938-6AAC-49DB-890D-C960FC49F0E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{F4532274-E82A-4F25-8C2D-C4B6C87B5CD9}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7200" xr2:uid="{13128920-B6FE-4053-B7E2-D49BE217C76D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>CasosDePrueba</t>
   </si>
@@ -160,6 +160,27 @@
   </si>
   <si>
     <t>Ofertas</t>
+  </si>
+  <si>
+    <t>Orlando</t>
+  </si>
+  <si>
+    <t>agosto 2023</t>
+  </si>
+  <si>
+    <t>Vuelo a Orlando</t>
+  </si>
+  <si>
+    <t>Despegar - Checkout</t>
+  </si>
+  <si>
+    <t>agosto 2024</t>
+  </si>
+  <si>
+    <t>Ingresa un destino</t>
+  </si>
+  <si>
+    <t>Ingresa una fecha de partida</t>
   </si>
 </sst>
 </file>
@@ -288,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -304,6 +325,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,7 +653,7 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,36 +748,6 @@
       <c r="I2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="2">
-        <v>3</v>
-      </c>
-      <c r="K2" s="2">
-        <v>4</v>
-      </c>
-      <c r="L2" s="2">
-        <v>5</v>
-      </c>
-      <c r="M2" s="2">
-        <v>6</v>
-      </c>
-      <c r="N2" s="2">
-        <v>7</v>
-      </c>
-      <c r="O2" s="2">
-        <v>8</v>
-      </c>
-      <c r="P2" s="2">
-        <v>9</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>10</v>
-      </c>
-      <c r="R2" s="2">
-        <v>11</v>
-      </c>
-      <c r="S2" s="2">
-        <v>12</v>
-      </c>
     </row>
     <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -794,6 +786,12 @@
       <c r="L3" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="M3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -802,10 +800,40 @@
       <c r="B4" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="C4" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -855,15 +883,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_activity xmlns="44a8347a-f54a-44bc-8dc4-392ae4985b50" xsi:nil="true"/>
@@ -871,7 +890,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100D9D086C79282EB40831F5A31AE1FD6DC" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="b8e2e9e99a661fd1fd7652c191a46a12">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="44a8347a-f54a-44bc-8dc4-392ae4985b50" xmlns:ns4="e9945a31-c942-40c8-8c8e-a530049e7ab7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3e433a894c7e3a33bff5c9c6d5edb65" ns3:_="" ns4:_="">
     <xsd:import namespace="44a8347a-f54a-44bc-8dc4-392ae4985b50"/>
@@ -1080,32 +1099,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93C6BBF2-AF03-444C-A73E-E776970F6E96}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD5FC94C-3FC4-4D5B-9DC7-5D8F2FC5389A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="e9945a31-c942-40c8-8c8e-a530049e7ab7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="44a8347a-f54a-44bc-8dc4-392ae4985b50"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD5FC94C-3FC4-4D5B-9DC7-5D8F2FC5389A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="44a8347a-f54a-44bc-8dc4-392ae4985b50"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="e9945a31-c942-40c8-8c8e-a530049e7ab7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77A5678B-121E-4253-9A46-D2881CF6C5EC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1122,4 +1142,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93C6BBF2-AF03-444C-A73E-E776970F6E96}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/test/resources/datos/data.xlsx
+++ b/src/test/resources/datos/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clara.alarcon\OneDrive - TSOFT\Escritorio\DesafioAutomatizacion\TrabajoPOM_alarcon\src\test\resources\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="8_{05C8B938-6AAC-49DB-890D-C960FC49F0E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{F4532274-E82A-4F25-8C2D-C4B6C87B5CD9}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{05C8B938-6AAC-49DB-890D-C960FC49F0E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{B48ACDC8-2DF7-4305-9617-A195F99F41B6}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7200" xr2:uid="{13128920-B6FE-4053-B7E2-D49BE217C76D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>CasosDePrueba</t>
   </si>
@@ -172,9 +172,6 @@
   </si>
   <si>
     <t>Despegar - Checkout</t>
-  </si>
-  <si>
-    <t>agosto 2024</t>
   </si>
   <si>
     <t>Ingresa un destino</t>
@@ -653,7 +650,7 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,10 +784,10 @@
         <v>43</v>
       </c>
       <c r="M3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -830,7 +827,7 @@
         <v>44</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>35</v>
@@ -883,11 +880,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="44a8347a-f54a-44bc-8dc4-392ae4985b50" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1100,27 +1098,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="44a8347a-f54a-44bc-8dc4-392ae4985b50" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD5FC94C-3FC4-4D5B-9DC7-5D8F2FC5389A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93C6BBF2-AF03-444C-A73E-E776970F6E96}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="e9945a31-c942-40c8-8c8e-a530049e7ab7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="44a8347a-f54a-44bc-8dc4-392ae4985b50"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1145,9 +1133,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93C6BBF2-AF03-444C-A73E-E776970F6E96}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD5FC94C-3FC4-4D5B-9DC7-5D8F2FC5389A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e9945a31-c942-40c8-8c8e-a530049e7ab7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="44a8347a-f54a-44bc-8dc4-392ae4985b50"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/src/test/resources/datos/data.xlsx
+++ b/src/test/resources/datos/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clara.alarcon\OneDrive - TSOFT\Escritorio\DesafioAutomatizacion\TrabajoPOM_alarcon\src\test\resources\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="8_{05C8B938-6AAC-49DB-890D-C960FC49F0E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{B48ACDC8-2DF7-4305-9617-A195F99F41B6}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="8_{05C8B938-6AAC-49DB-890D-C960FC49F0E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{E1AD4000-8210-443F-917C-73FD44792F29}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7200" xr2:uid="{13128920-B6FE-4053-B7E2-D49BE217C76D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
   <si>
     <t>CasosDePrueba</t>
   </si>
@@ -178,6 +178,30 @@
   </si>
   <si>
     <t>Ingresa una fecha de partida</t>
+  </si>
+  <si>
+    <t>Ida</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>Bogotá</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>Ushuaia</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>Tokio</t>
+  </si>
+  <si>
+    <t>Disney</t>
   </si>
 </sst>
 </file>
@@ -650,7 +674,7 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,25 +749,25 @@
         <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>37</v>
+        <v>51</v>
+      </c>
+      <c r="G2" s="2">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2023</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -830,13 +854,19 @@
         <v>46</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -847,10 +877,70 @@
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="2">
+        <v>7</v>
+      </c>
+      <c r="G8" s="2">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="2">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2023</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="2">
+        <v>8</v>
+      </c>
+      <c r="M9" s="2">
+        <v>2023</v>
+      </c>
+      <c r="N9" s="2">
+        <v>7</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -880,6 +970,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="44a8347a-f54a-44bc-8dc4-392ae4985b50" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -888,7 +986,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100D9D086C79282EB40831F5A31AE1FD6DC" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="b8e2e9e99a661fd1fd7652c191a46a12">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="44a8347a-f54a-44bc-8dc4-392ae4985b50" xmlns:ns4="e9945a31-c942-40c8-8c8e-a530049e7ab7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3e433a894c7e3a33bff5c9c6d5edb65" ns3:_="" ns4:_="">
     <xsd:import namespace="44a8347a-f54a-44bc-8dc4-392ae4985b50"/>
@@ -1097,15 +1195,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="44a8347a-f54a-44bc-8dc4-392ae4985b50" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD5FC94C-3FC4-4D5B-9DC7-5D8F2FC5389A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="44a8347a-f54a-44bc-8dc4-392ae4985b50"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="e9945a31-c942-40c8-8c8e-a530049e7ab7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93C6BBF2-AF03-444C-A73E-E776970F6E96}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1113,7 +1220,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77A5678B-121E-4253-9A46-D2881CF6C5EC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1130,21 +1237,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD5FC94C-3FC4-4D5B-9DC7-5D8F2FC5389A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e9945a31-c942-40c8-8c8e-a530049e7ab7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="44a8347a-f54a-44bc-8dc4-392ae4985b50"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/test/resources/datos/data.xlsx
+++ b/src/test/resources/datos/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clara.alarcon\OneDrive - TSOFT\Escritorio\DesafioAutomatizacion\TrabajoPOM_alarcon\src\test\resources\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="8_{05C8B938-6AAC-49DB-890D-C960FC49F0E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{E1AD4000-8210-443F-917C-73FD44792F29}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="8_{05C8B938-6AAC-49DB-890D-C960FC49F0E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{002F3DB8-A23D-4564-AB64-BAE903882C21}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7200" xr2:uid="{13128920-B6FE-4053-B7E2-D49BE217C76D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="98">
   <si>
     <t>CasosDePrueba</t>
   </si>
@@ -202,19 +202,155 @@
   </si>
   <si>
     <t>Disney</t>
+  </si>
+  <si>
+    <t>Facebook - Google Chrome</t>
+  </si>
+  <si>
+    <t>user@gmail.com</t>
+  </si>
+  <si>
+    <t>Asistencias</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Partida</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Regreso</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Europa</t>
+  </si>
+  <si>
+    <t>Nombre Pasajero</t>
+  </si>
+  <si>
+    <t>Clara</t>
+  </si>
+  <si>
+    <t>Apellido Pasajero</t>
+  </si>
+  <si>
+    <t>Kravinsky</t>
+  </si>
+  <si>
+    <t>Numero documento</t>
+  </si>
+  <si>
+    <t>11111111</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Numero telefono</t>
+  </si>
+  <si>
+    <t>dato19</t>
+  </si>
+  <si>
+    <t>dato20</t>
+  </si>
+  <si>
+    <t>dato21</t>
+  </si>
+  <si>
+    <t>dato22</t>
+  </si>
+  <si>
+    <t>dato23</t>
+  </si>
+  <si>
+    <t>dato24</t>
+  </si>
+  <si>
+    <t>dato25</t>
+  </si>
+  <si>
+    <t>dato26</t>
+  </si>
+  <si>
+    <t>dato27</t>
+  </si>
+  <si>
+    <t>dato28</t>
+  </si>
+  <si>
+    <t>dato29</t>
+  </si>
+  <si>
+    <t>1232242535</t>
+  </si>
+  <si>
+    <t>Tarjeta de Debito</t>
+  </si>
+  <si>
+    <t>05/29</t>
+  </si>
+  <si>
+    <t>Pedro Wado</t>
+  </si>
+  <si>
+    <t>Escapadas</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>//div[contains(text(),'sobre tu Escapada')]</t>
+  </si>
+  <si>
+    <t>Email confirmacion</t>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>//p[text()='Recomendados']</t>
+  </si>
+  <si>
+    <t>Recomendados</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="15">
@@ -327,10 +463,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -347,8 +484,13 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -671,18 +813,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{024DBC9F-1865-4504-B264-F8EA9527D354}">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:AD13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -740,8 +882,41 @@
       <c r="S1" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" s="2" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -769,8 +944,14 @@
       <c r="I2" s="15" t="s">
         <v>52</v>
       </c>
+      <c r="J2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" s="2" customFormat="1">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -814,7 +995,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" s="2" customFormat="1">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -843,7 +1024,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" s="2" customFormat="1">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -856,8 +1037,11 @@
       <c r="D5" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="E5" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" s="2" customFormat="1">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
@@ -867,13 +1051,52 @@
       <c r="C6" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="2">
+        <v>12345</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" s="2" customFormat="1">
       <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2023</v>
+      </c>
+      <c r="G7" s="2">
+        <v>18</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="2">
+        <v>24</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" s="2" customFormat="1">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
@@ -896,7 +1119,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" s="2" customFormat="1">
       <c r="A9" s="10" t="s">
         <v>8</v>
       </c>
@@ -936,31 +1159,152 @@
       <c r="M9" s="2">
         <v>2023</v>
       </c>
-      <c r="N9" s="2">
-        <v>7</v>
+      <c r="N9" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="P9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" s="2" customFormat="1">
       <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
+      <c r="B10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2023</v>
+      </c>
+      <c r="G10" s="2">
+        <v>18</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="2">
+        <v>24</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O10" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q10" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="S10" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="U10" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="W10" s="2">
+        <v>123456</v>
+      </c>
+      <c r="X10" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>123</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>11111113</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="11" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" s="2" customFormat="1">
       <c r="A11" s="12" t="s">
         <v>10</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2</v>
+      </c>
+      <c r="S11" s="15"/>
     </row>
-    <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" s="2" customFormat="1">
       <c r="A12" s="13" t="s">
         <v>11</v>
       </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="2">
+        <v>123456</v>
+      </c>
     </row>
-    <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" s="2" customFormat="1">
       <c r="A13" s="14" t="s">
         <v>12</v>
+      </c>
+      <c r="B13" s="15">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -970,23 +1314,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="44a8347a-f54a-44bc-8dc4-392ae4985b50" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100D9D086C79282EB40831F5A31AE1FD6DC" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="b8e2e9e99a661fd1fd7652c191a46a12">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="44a8347a-f54a-44bc-8dc4-392ae4985b50" xmlns:ns4="e9945a31-c942-40c8-8c8e-a530049e7ab7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3e433a894c7e3a33bff5c9c6d5edb65" ns3:_="" ns4:_="">
     <xsd:import namespace="44a8347a-f54a-44bc-8dc4-392ae4985b50"/>
@@ -1195,32 +1522,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD5FC94C-3FC4-4D5B-9DC7-5D8F2FC5389A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="44a8347a-f54a-44bc-8dc4-392ae4985b50"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="e9945a31-c942-40c8-8c8e-a530049e7ab7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93C6BBF2-AF03-444C-A73E-E776970F6E96}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="44a8347a-f54a-44bc-8dc4-392ae4985b50" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77A5678B-121E-4253-9A46-D2881CF6C5EC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1237,4 +1556,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93C6BBF2-AF03-444C-A73E-E776970F6E96}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD5FC94C-3FC4-4D5B-9DC7-5D8F2FC5389A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="44a8347a-f54a-44bc-8dc4-392ae4985b50"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="e9945a31-c942-40c8-8c8e-a530049e7ab7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>